--- a/SQL Assignments/ASS-05 Normalization.xlsx
+++ b/SQL Assignments/ASS-05 Normalization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infics-my.sharepoint.com/personal/shreedharar_infinite_com/Documents/Desktop/ICS Training/Training Assignments/SQL Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{282AA059-9733-4DFA-8B65-D1D794643916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC1B1D4B-C66E-4F81-A146-6F30AD5F666C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{BDA0108B-73CF-4387-B9A8-E431FBA86ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB816FCD-F8C6-4370-ABA5-CA145DEE0EFC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="33">
   <si>
     <t>ClientNo</t>
   </si>
@@ -105,35 +105,32 @@
     <t>OwnerNo (Primary Key)</t>
   </si>
   <si>
-    <t>Property Table</t>
-  </si>
-  <si>
-    <t>Foregin Key references  to Owner</t>
-  </si>
-  <si>
-    <t>Foregin Key references  to Client</t>
-  </si>
-  <si>
     <t>Owner Table</t>
   </si>
   <si>
     <t>OwnerName</t>
   </si>
   <si>
-    <t>Foregin Key references  to Property</t>
-  </si>
-  <si>
-    <t>Sl_No (Primary Key)</t>
-  </si>
-  <si>
     <t>PropertyNo (Primary Key)</t>
+  </si>
+  <si>
+    <t>OwnerNo (Foreign Key)</t>
+  </si>
+  <si>
+    <t>Property Owner Table</t>
+  </si>
+  <si>
+    <t>Composite Primary Keys</t>
+  </si>
+  <si>
+    <t>Rent Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +145,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -218,11 +235,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,20 +280,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,26 +608,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Q20"/>
+  <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="9" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="2" customWidth="1"/>
     <col min="13" max="13" width="17.140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.85546875" style="2" customWidth="1"/>
@@ -577,7 +638,8 @@
     <col min="20" max="16384" width="12.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,14 +665,14 @@
         <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -636,9 +698,9 @@
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
+    <row r="4" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
@@ -662,11 +724,11 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -692,9 +754,9 @@
       </c>
       <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="10"/>
+    <row r="6" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
@@ -718,9 +780,9 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="2:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
+    <row r="7" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -744,260 +806,269 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="2:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+    <row r="8" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="H9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="K9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="10" t="s">
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="H10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="15" t="s">
+    </row>
+    <row r="11" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>36708</v>
+      </c>
+      <c r="F12" s="4">
+        <v>37134</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <v>37500</v>
+      </c>
+      <c r="F13" s="4">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4">
+        <v>36404</v>
+      </c>
+      <c r="F14" s="4">
+        <v>36687</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>36809</v>
+      </c>
+      <c r="F15" s="4">
+        <v>37226</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="J15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="L15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="M11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="P11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="2:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36708</v>
-      </c>
-      <c r="D12" s="4">
-        <v>37134</v>
-      </c>
-      <c r="E12" s="3">
+    </row>
+    <row r="16" spans="2:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4">
+        <v>37561</v>
+      </c>
+      <c r="F16" s="4">
+        <v>37834</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="11">
         <v>350</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="L16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>37500</v>
-      </c>
-      <c r="D13" s="4">
-        <v>37500</v>
-      </c>
-      <c r="E13" s="3">
+    </row>
+    <row r="17" spans="4:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="11">
         <v>450</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="L17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>36404</v>
-      </c>
-      <c r="D14" s="4">
-        <v>36687</v>
-      </c>
-      <c r="E14" s="3">
-        <v>350</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3" t="s">
+    </row>
+    <row r="18" spans="4:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="11">
+        <v>370</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>36809</v>
-      </c>
-      <c r="D15" s="4">
-        <v>37226</v>
-      </c>
-      <c r="E15" s="3">
-        <v>370</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>37561</v>
-      </c>
-      <c r="D16" s="4">
-        <v>37834</v>
-      </c>
-      <c r="E16" s="3">
-        <v>450</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="19" spans="4:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="4:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="B9:D10"/>
+  <mergeCells count="10">
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
